--- a/mail.xlsx
+++ b/mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zraja\Documents\NellyDilemmaIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B721D10D-B2E9-46BF-A0CD-675322E7807E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{535A8867-753B-4439-9AF9-9B9382FFE391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B21C48D-52AD-4B7D-A9F0-9E5CBE8F8ED9}"/>
   </bookViews>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>xQc</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +46,24 @@
   </si>
   <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>Na mon  &lt;</t>
+  </si>
+  <si>
+    <t>Adept</t>
+  </si>
+  <si>
+    <t>How are you?  &lt;</t>
+  </si>
+  <si>
+    <t>hll  &lt;</t>
+  </si>
+  <si>
+    <t>Yah</t>
+  </si>
+  <si>
+    <t>Yah  &lt;</t>
   </si>
 </sst>
 </file>
@@ -90,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -109,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +620,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -626,10 +650,12 @@
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
@@ -650,10 +676,10 @@
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -668,10 +694,14 @@
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -696,19 +726,29 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="8"/>
+      <c r="G17" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="8"/>

--- a/mail.xlsx
+++ b/mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zraja\Documents\NellyDilemmaIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{535A8867-753B-4439-9AF9-9B9382FFE391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01297207-8E93-4402-84BB-05B99A9844EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B21C48D-52AD-4B7D-A9F0-9E5CBE8F8ED9}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>xQc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
   </si>
@@ -46,24 +43,6 @@
   </si>
   <si>
     <t>Message</t>
-  </si>
-  <si>
-    <t>Na mon  &lt;</t>
-  </si>
-  <si>
-    <t>Adept</t>
-  </si>
-  <si>
-    <t>How are you?  &lt;</t>
-  </si>
-  <si>
-    <t>hll  &lt;</t>
-  </si>
-  <si>
-    <t>Yah</t>
-  </si>
-  <si>
-    <t>Yah  &lt;</t>
   </si>
 </sst>
 </file>
@@ -118,7 +97,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -134,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +599,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +615,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -650,12 +629,10 @@
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
@@ -675,11 +652,11 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -694,14 +671,10 @@
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -726,44 +699,34 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="8"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="8"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="7"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="8"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
